--- a/biology/Botanique/Lonchocarpus_punctatus/Lonchocarpus_punctatus.xlsx
+++ b/biology/Botanique/Lonchocarpus_punctatus/Lonchocarpus_punctatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonchocarpus punctatus ou bois-savonnette (aux Antilles) est un arbre de 5 à 15 mètres, de la famille des Fabaceae, originaire des Antilles, Venezuela et Colombie.
 Synonymes taxinomiques :
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce de Lonchocarpus est un arbre de 5-15 m, possédant une écorce grise[1] et des feuilles caduques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de Lonchocarpus est un arbre de 5-15 m, possédant une écorce grise et des feuilles caduques.
 Ses feuilles imparipennées comportent de 3 à 4 paires de folioles, elliptiques, fines, membraneuses, vert clair, de chacune 4-16 × 3-4 cm, à base arrondie, marquées de points noirs et de points translucides bien visibles.
 Les fleurs rose-mauve sont disposées par deux sur un racème de 20 cm de long. Chaque fleur comporte un calice tronqué, une corolle rose-mauve devenant blanche, taché de jaune au centre, avec un étendard largement étalé, arrondi, de 15 mm de diamètre.
 La floraison a lieu de juin à octobre.
@@ -549,7 +563,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est originaire des Caraïbes, du Venezuela et de Colombie.
 On le rencontre aux Antilles françaises, dans la forêt xérophile, surtout sur sol volcanique, et dans la forêt mésophile.
@@ -581,9 +597,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux Antilles[2], ses feuilles sont utilisées pour des « bains réchauffants »
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux Antilles, ses feuilles sont utilisées pour des « bains réchauffants »
 </t>
         </is>
       </c>
